--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="172">
   <si>
     <t>X1</t>
   </si>
@@ -527,82 +527,7 @@
     <t>0.796</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>9.46e-08</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>7.94e-08</t>
-  </si>
-  <si>
-    <t>[0.93;1.021]</t>
-  </si>
-  <si>
-    <t>[0.64;4.362]</t>
-  </si>
-  <si>
-    <t>[0.087;0.913]</t>
-  </si>
-  <si>
-    <t>[NA;1.47480695333869e+108]</t>
-  </si>
-  <si>
-    <t>[0.017;3.861]</t>
-  </si>
-  <si>
-    <t>[0.384;9.079]</t>
-  </si>
-  <si>
-    <t>[0.159;51.398]</t>
-  </si>
-  <si>
-    <t>[0.069;2.261]</t>
-  </si>
-  <si>
-    <t>[NA;1.13324460320633e+205]</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.995</t>
   </si>
 </sst>
 </file>
@@ -716,10 +641,10 @@
         <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -736,13 +661,13 @@
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -759,13 +684,13 @@
         <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
@@ -782,13 +707,13 @@
         <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -805,13 +730,13 @@
         <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -828,13 +753,13 @@
         <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -851,13 +776,13 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
@@ -874,13 +799,13 @@
         <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -897,13 +822,13 @@
         <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -920,13 +845,13 @@
         <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
@@ -943,13 +868,13 @@
         <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
@@ -966,13 +891,13 @@
         <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
@@ -989,13 +914,13 @@
         <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -1012,13 +937,13 @@
         <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -1035,13 +960,13 @@
         <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +983,13 @@
         <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1081,13 +1006,13 @@
         <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -1104,13 +1029,13 @@
         <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -1127,13 +1052,13 @@
         <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -1150,13 +1075,13 @@
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
@@ -1173,13 +1098,13 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
@@ -1196,13 +1121,13 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1219,13 +1144,13 @@
         <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
@@ -1242,13 +1167,13 @@
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1265,13 +1190,13 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
@@ -1288,13 +1213,13 @@
         <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
@@ -1311,13 +1236,13 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30">
@@ -1334,13 +1259,13 @@
         <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
@@ -1357,13 +1282,13 @@
         <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
@@ -1380,13 +1305,13 @@
         <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -1403,13 +1328,13 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -1426,13 +1351,13 @@
         <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
@@ -1449,13 +1374,13 @@
         <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -1472,13 +1397,13 @@
         <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
@@ -1495,13 +1420,13 @@
         <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
@@ -1518,13 +1443,13 @@
         <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
@@ -1541,13 +1466,13 @@
         <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40">
@@ -1564,13 +1489,13 @@
         <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
@@ -1587,13 +1512,13 @@
         <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
@@ -1610,13 +1535,13 @@
         <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43">
@@ -1633,13 +1558,13 @@
         <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44">
@@ -1656,13 +1581,13 @@
         <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="308">
   <si>
     <t>X1</t>
   </si>
@@ -71,6 +71,18 @@
     <t>TS  (oui)</t>
   </si>
   <si>
+    <t>suivi  (CMP)</t>
+  </si>
+  <si>
+    <t>suivi  (non)</t>
+  </si>
+  <si>
+    <t>suivi  (psychiatre libéral)</t>
+  </si>
+  <si>
+    <t>suivi  (psychologue libéral)</t>
+  </si>
+  <si>
     <t>TTT  (antipsychotique)</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>TTT  (thymorégulateur)</t>
   </si>
   <si>
-    <t>hospitalisation_anterieure  (oui)</t>
-  </si>
-  <si>
     <t>diagnostic  (non)</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>scolarite  (difficultés scolaires)</t>
   </si>
   <si>
+    <t>scolarite  (ITEP)</t>
+  </si>
+  <si>
     <t>scolarite  (scolarite clasique)</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>alcool  (oui)</t>
   </si>
   <si>
-    <t>cannabis  (oui)</t>
-  </si>
-  <si>
     <t>toxiques  (oui)</t>
   </si>
   <si>
@@ -167,367 +176,766 @@
     <t>OR</t>
   </si>
   <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>75.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>53.9</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>0.0868</t>
+  </si>
+  <si>
+    <t>0.0354</t>
+  </si>
+  <si>
+    <t>0.0183</t>
+  </si>
+  <si>
+    <t>0.0345</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>73.9</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0.0535</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>9.05</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
     <t>0.98</t>
   </si>
   <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>8.68e-08</t>
-  </si>
-  <si>
-    <t>0.179</t>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>[0.837;1.056]</t>
+  </si>
+  <si>
+    <t>[0.02;3.271]</t>
+  </si>
+  <si>
+    <t>[0.31;6.247]</t>
+  </si>
+  <si>
+    <t>[0;258661754.502]</t>
+  </si>
+  <si>
+    <t>[0.102;28.335]</t>
+  </si>
+  <si>
+    <t>[0.055;2153.193]</t>
+  </si>
+  <si>
+    <t>[0.032;31.187]</t>
+  </si>
+  <si>
+    <t>[0;331387525.416]</t>
+  </si>
+  <si>
+    <t>[0.062;2.679]</t>
+  </si>
+  <si>
+    <t>[0.1;6.88]</t>
+  </si>
+  <si>
+    <t>[0.219;2513.957]</t>
+  </si>
+  <si>
+    <t>[0.042;69426.178]</t>
+  </si>
+  <si>
+    <t>[0.167;19.18]</t>
+  </si>
+  <si>
+    <t>[0.271;138.036]</t>
+  </si>
+  <si>
+    <t>[0.366;87.264]</t>
+  </si>
+  <si>
+    <t>[0;105.288]</t>
+  </si>
+  <si>
+    <t>[0;26.645]</t>
+  </si>
+  <si>
+    <t>[0;43.08]</t>
+  </si>
+  <si>
+    <t>[0;22.125]</t>
+  </si>
+  <si>
+    <t>[0;340.688]</t>
+  </si>
+  <si>
+    <t>[0.052;2.171]</t>
+  </si>
+  <si>
+    <t>[0.006;7.045]</t>
+  </si>
+  <si>
+    <t>[0.024;15.687]</t>
+  </si>
+  <si>
+    <t>[0;4998033.009]</t>
+  </si>
+  <si>
+    <t>[0;673182780989.551]</t>
+  </si>
+  <si>
+    <t>[0.038;6.181]</t>
+  </si>
+  <si>
+    <t>[0.002;22.195]</t>
+  </si>
+  <si>
+    <t>[0.269;6.693]</t>
+  </si>
+  <si>
+    <t>[0.343;9.636]</t>
+  </si>
+  <si>
+    <t>[0.009;140692.992]</t>
+  </si>
+  <si>
+    <t>[0.2;4504.834]</t>
+  </si>
+  <si>
+    <t>[0.075;133.386]</t>
+  </si>
+  <si>
+    <t>[0.006;35.163]</t>
+  </si>
+  <si>
+    <t>[0.233;4.603]</t>
+  </si>
+  <si>
+    <t>[0;6528354168752644096]</t>
+  </si>
+  <si>
+    <t>[0.102;4.37]</t>
+  </si>
+  <si>
+    <t>[0.17;2.31]</t>
+  </si>
+  <si>
+    <t>[0.015;17200.729]</t>
+  </si>
+  <si>
+    <t>[0;149231543.787]</t>
+  </si>
+  <si>
+    <t>[0.004;0.654]</t>
+  </si>
+  <si>
+    <t>[0.141;16.239]</t>
+  </si>
+  <si>
+    <t>[0.305;268.448]</t>
+  </si>
+  <si>
+    <t>[0.024;9.322]</t>
+  </si>
+  <si>
+    <t>[0.026;25834.569]</t>
+  </si>
+  <si>
+    <t>[0.103;9.318]</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>0.299</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.215</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>6.39e-08</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5.33</t>
-  </si>
-  <si>
-    <t>2.32e-07</t>
-  </si>
-  <si>
-    <t>1.07</t>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.252</t>
   </si>
   <si>
     <t>0.381</t>
   </si>
   <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>1.81</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>4.3e-08</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>2.24e-07</t>
-  </si>
-  <si>
-    <t>3.11</t>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.576</t>
   </si>
   <si>
     <t>0.778</t>
   </si>
   <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>[0.939;1.022]</t>
-  </si>
-  <si>
-    <t>[0.227;1.637]</t>
-  </si>
-  <si>
-    <t>[0.517;14.875]</t>
-  </si>
-  <si>
-    <t>[1.636;488.469]</t>
-  </si>
-  <si>
-    <t>[0.057;22.547]</t>
-  </si>
-  <si>
-    <t>[0.53;9.243]</t>
-  </si>
-  <si>
-    <t>[0.107;7.949]</t>
-  </si>
-  <si>
-    <t>[0.288;21.374]</t>
-  </si>
-  <si>
-    <t>[0.066;1.026]</t>
-  </si>
-  <si>
-    <t>[0.195;2.921]</t>
-  </si>
-  <si>
-    <t>[1.17;6.337]</t>
-  </si>
-  <si>
-    <t>[0.034;2.639]</t>
-  </si>
-  <si>
-    <t>[0.029;0.957]</t>
-  </si>
-  <si>
-    <t>[NA;4.17429913279514e+121]</t>
-  </si>
-  <si>
-    <t>[0.05;0.57]</t>
-  </si>
-  <si>
-    <t>[0.017;14.448]</t>
-  </si>
-  <si>
-    <t>[1.191;6.596]</t>
-  </si>
-  <si>
-    <t>[0.085;0.818]</t>
-  </si>
-  <si>
-    <t>[NA;1.48369682405932e+108]</t>
-  </si>
-  <si>
-    <t>[0.015;3.187]</t>
-  </si>
-  <si>
-    <t>[0.452;9.831]</t>
-  </si>
-  <si>
-    <t>[0.162;47.708]</t>
-  </si>
-  <si>
-    <t>[0.084;2.543]</t>
-  </si>
-  <si>
-    <t>[NA;1.03624327191198e+205]</t>
-  </si>
-  <si>
-    <t>[0.417;6.125]</t>
-  </si>
-  <si>
-    <t>[0.571;7.952]</t>
-  </si>
-  <si>
-    <t>[0.739;18.582]</t>
-  </si>
-  <si>
-    <t>[1.278;7.171]</t>
-  </si>
-  <si>
-    <t>[0.649;114.315]</t>
-  </si>
-  <si>
-    <t>[NA;1.22682111222319e+122]</t>
-  </si>
-  <si>
-    <t>[0.337;3.419]</t>
-  </si>
-  <si>
-    <t>[0.049;2.048]</t>
-  </si>
-  <si>
-    <t>[0.093;0.963]</t>
-  </si>
-  <si>
-    <t>[0.627;5.094]</t>
-  </si>
-  <si>
-    <t>[0.405;2.47]</t>
-  </si>
-  <si>
-    <t>[0.242;18.054]</t>
-  </si>
-  <si>
-    <t>[NA;6.19175728651563e+50]</t>
-  </si>
-  <si>
-    <t>[0.278;12.042]</t>
-  </si>
-  <si>
-    <t>[0.583;21.482]</t>
-  </si>
-  <si>
-    <t>[0;24341810086891352064]</t>
-  </si>
-  <si>
-    <t>[0.551;25.209]</t>
-  </si>
-  <si>
-    <t>[0.12;6.524]</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.054</t>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>0.829</t>
   </si>
   <si>
     <t>0.673</t>
   </si>
   <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>0.991</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.992</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.994</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>0.912</t>
-  </si>
-  <si>
-    <t>0.292</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>0.471</t>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.842</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.901</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>[0.926;1.056]</t>
+  </si>
+  <si>
+    <t>[0.222;4.987]</t>
+  </si>
+  <si>
+    <t>[0.21;12.258]</t>
+  </si>
+  <si>
+    <t>[0.103;363.779]</t>
+  </si>
+  <si>
+    <t>[0.04;41.399]</t>
+  </si>
+  <si>
+    <t>[0.098;34.042]</t>
+  </si>
+  <si>
+    <t>[0.027;29.527]</t>
+  </si>
+  <si>
+    <t>[0.024;251.65]</t>
+  </si>
+  <si>
+    <t>[0.052;23.071]</t>
+  </si>
+  <si>
+    <t>[0.065;10.947]</t>
+  </si>
+  <si>
+    <t>[0.279;4.792]</t>
+  </si>
+  <si>
+    <t>[0.05;69.587]</t>
+  </si>
+  <si>
+    <t>[0.044;51.775]</t>
+  </si>
+  <si>
+    <t>[0.035;69.805]</t>
+  </si>
+  <si>
+    <t>[0.08;57.072]</t>
+  </si>
+  <si>
+    <t>[0.007;35.317]</t>
+  </si>
+  <si>
+    <t>[0.016;28.61]</t>
+  </si>
+  <si>
+    <t>[0;1609.13]</t>
+  </si>
+  <si>
+    <t>[0.021;21.472]</t>
+  </si>
+  <si>
+    <t>[0;13031420.222]</t>
+  </si>
+  <si>
+    <t>[0.056;11.734]</t>
+  </si>
+  <si>
+    <t>[0.002;197.664]</t>
+  </si>
+  <si>
+    <t>[0.044;29.128]</t>
+  </si>
+  <si>
+    <t>[0.052;22.429]</t>
+  </si>
+  <si>
+    <t>[0;9857784929.01]</t>
+  </si>
+  <si>
+    <t>[0.008;41.097]</t>
+  </si>
+  <si>
+    <t>[0.002;1379.031]</t>
+  </si>
+  <si>
+    <t>[0.164;7.445]</t>
+  </si>
+  <si>
+    <t>[0.175;7.011]</t>
+  </si>
+  <si>
+    <t>[0.082;12.94]</t>
+  </si>
+  <si>
+    <t>[0.29;10.781]</t>
+  </si>
+  <si>
+    <t>[0.035;446.993]</t>
+  </si>
+  <si>
+    <t>[0;235.379]</t>
+  </si>
+  <si>
+    <t>[0.171;8.981]</t>
+  </si>
+  <si>
+    <t>[0;17641988099.318]</t>
+  </si>
+  <si>
+    <t>[0.078;10.209]</t>
+  </si>
+  <si>
+    <t>[0.124;4.402]</t>
+  </si>
+  <si>
+    <t>[0.139;5.821]</t>
+  </si>
+  <si>
+    <t>[0.018;121.522]</t>
+  </si>
+  <si>
+    <t>[0.059;11.054]</t>
+  </si>
+  <si>
+    <t>[0.101;27.53]</t>
+  </si>
+  <si>
+    <t>[0.142;23.48]</t>
+  </si>
+  <si>
+    <t>[0.018;33.956]</t>
+  </si>
+  <si>
+    <t>[0.088;26.693]</t>
+  </si>
+  <si>
+    <t>[0.085;15.975]</t>
+  </si>
+  <si>
+    <t>0.736</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.884</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.652</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.881</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>0.913</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>0.873</t>
   </si>
   <si>
     <t>0.644</t>
   </si>
   <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.796</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.909</t>
   </si>
 </sst>
 </file>
@@ -606,22 +1014,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -629,22 +1037,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
@@ -652,22 +1060,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -675,22 +1083,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
@@ -698,22 +1106,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7">
@@ -721,22 +1129,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8">
@@ -744,22 +1152,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -767,22 +1175,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10">
@@ -790,22 +1198,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11">
@@ -813,22 +1221,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +1244,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13">
@@ -859,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14">
@@ -882,22 +1290,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -905,22 +1313,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16">
@@ -928,22 +1336,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
@@ -951,22 +1359,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
@@ -974,22 +1382,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19">
@@ -997,22 +1405,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20">
@@ -1020,22 +1428,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21">
@@ -1043,22 +1451,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22">
@@ -1066,22 +1474,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23">
@@ -1089,22 +1497,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24">
@@ -1112,22 +1520,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25">
@@ -1135,22 +1543,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26">
@@ -1158,22 +1566,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27">
@@ -1181,22 +1589,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
@@ -1204,22 +1612,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
@@ -1227,22 +1635,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
@@ -1250,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
@@ -1273,22 +1681,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
@@ -1296,22 +1704,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
@@ -1319,22 +1727,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
@@ -1342,22 +1750,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -1365,22 +1773,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
@@ -1388,22 +1796,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
-        <v>171</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
@@ -1411,22 +1819,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
@@ -1434,22 +1842,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
@@ -1457,22 +1865,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
@@ -1480,22 +1888,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41">
@@ -1503,22 +1911,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
@@ -1526,22 +1934,22 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
@@ -1549,22 +1957,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44">
@@ -1572,22 +1980,91 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G47" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
   <si>
     <t>X1</t>
   </si>
@@ -473,148 +473,70 @@
     <t>0.986</t>
   </si>
   <si>
-    <t>0.983</t>
-  </si>
-  <si>
-    <t>0.81</t>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>0.554</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>0.0758</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>[0.918;1.053]</t>
-  </si>
-  <si>
-    <t>[0.181;3.636]</t>
-  </si>
-  <si>
-    <t>[0.118;1312.346]</t>
-  </si>
-  <si>
-    <t>[0.029;68.479]</t>
-  </si>
-  <si>
-    <t>[0.001;328523.055]</t>
-  </si>
-  <si>
-    <t>[0.061;18.095]</t>
-  </si>
-  <si>
-    <t>[0.066;10.169]</t>
-  </si>
-  <si>
-    <t>[0.285;6.966]</t>
-  </si>
-  <si>
-    <t>[0.002;3.407]</t>
-  </si>
-  <si>
-    <t>[0.004;5.806]</t>
-  </si>
-  <si>
-    <t>[0.028;20.626]</t>
-  </si>
-  <si>
-    <t>[0.011;9.562]</t>
-  </si>
-  <si>
-    <t>[0.102;3.488]</t>
-  </si>
-  <si>
-    <t>[0.125;3.91]</t>
-  </si>
-  <si>
-    <t>[0.065;58.259]</t>
-  </si>
-  <si>
-    <t>[0.145;11.358]</t>
-  </si>
-  <si>
-    <t>[0.027;2.579]</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.784</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.866</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.971</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.867</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.566</t>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>33.9</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>[0.908;1.053]</t>
+  </si>
+  <si>
+    <t>[0.123;2.488]</t>
+  </si>
+  <si>
+    <t>[0.505;22.02]</t>
+  </si>
+  <si>
+    <t>[0.261;7.768]</t>
+  </si>
+  <si>
+    <t>[0.265;8.608]</t>
+  </si>
+  <si>
+    <t>[0.016;73150.465]</t>
+  </si>
+  <si>
+    <t>[0.186;22.694]</t>
+  </si>
+  <si>
+    <t>[0.038;2.328]</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.211</t>
   </si>
   <si>
     <t>0.683</t>
   </si>
   <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.822</t>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.557</t>
   </si>
 </sst>
 </file>
@@ -728,10 +650,10 @@
         <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -751,10 +673,10 @@
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -817,13 +739,13 @@
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -840,13 +762,13 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -863,13 +785,13 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -886,13 +808,13 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -909,13 +831,13 @@
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -932,13 +854,13 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
@@ -955,13 +877,13 @@
         <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -978,13 +900,13 @@
         <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -1001,13 +923,13 @@
         <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -1024,13 +946,13 @@
         <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -1231,13 +1153,13 @@
         <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
@@ -1254,13 +1176,13 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
@@ -1277,13 +1199,13 @@
         <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G27" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -1392,13 +1314,13 @@
         <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -1438,13 +1360,13 @@
         <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
